--- a/municipal/დემოგრაფია/ჩვილ ბავშვთა მოკვდაობის კოეფიციენტი/ქობულეთი.xlsx
+++ b/municipal/დემოგრაფია/ჩვილ ბავშვთა მოკვდაობის კოეფიციენტი/ქობულეთი.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\2) გარდაცვალება 2022\ჩვილ ბავშვთა მოკვდაობა\ჩვილ ბავშვთა მოკვდაობის კოეფიციენტი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E95942-0E1D-4A3E-A362-E952394AFE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C3D2C-AB51-4BCA-95A1-6670F22BC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +110,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -170,19 +177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -257,6 +251,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -268,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -286,17 +306,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -307,24 +318,48 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -755,13 +790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="20" customWidth="1"/>
-    <col min="2" max="13" width="8.140625" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="23.28515625" style="16" customWidth="1"/>
+    <col min="2" max="11" width="8.140625" style="16" customWidth="1"/>
+    <col min="12" max="15" width="7.7109375" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -939,131 +977,155 @@
       <c r="L4" s="8">
         <v>2020</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="20">
         <v>2021</v>
+      </c>
+      <c r="N4" s="23">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="27">
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>16.100000000000001</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>18.600000000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>10.9</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>13.5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>8.5</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>7.4</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>8.5</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>10.5</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="14">
         <v>7.9</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="14">
         <v>12</v>
+      </c>
+      <c r="N5" s="25">
+        <v>10.8</v>
+      </c>
+      <c r="O5" s="21">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>20.5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>14.6</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>7.4</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>11.9</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>11.9</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>10.8</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>2.4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>4.2</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="12">
         <v>7.9</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>9.9</v>
+      </c>
+      <c r="N6" s="24">
+        <v>5.9</v>
+      </c>
+      <c r="O6" s="19">
+        <v>9.1</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>14.1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>21.8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>13.1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>14.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>7.3</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>10.1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>11</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>10.7</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>7.8</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>10.5</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>13.5</v>
+      </c>
+      <c r="N7" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="O7" s="22">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1135,24 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:CT3">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1087,10 +1167,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1105,10 +1185,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1123,10 +1203,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1141,28 +1221,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:CT3">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
